--- a/Team-Data/2012-13/3-26-2012-13.xlsx
+++ b/Team-Data/2012-13/3-26-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.514</v>
+        <v>0.522</v>
       </c>
       <c r="H3" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I3" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K3" t="n">
         <v>0.461</v>
@@ -875,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
         <v>0.356</v>
@@ -887,7 +954,7 @@
         <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R3" t="n">
         <v>8.199999999999999</v>
@@ -899,34 +966,34 @@
         <v>39.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
         <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
         <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -956,7 +1023,7 @@
         <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>18</v>
@@ -977,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
@@ -989,13 +1056,13 @@
         <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1156,7 +1223,7 @@
         <v>21</v>
       </c>
       <c r="AT4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1505,10 +1572,10 @@
         <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>6</v>
@@ -1541,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1666,7 +1733,7 @@
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -1758,19 +1825,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>0.493</v>
+        <v>0.486</v>
       </c>
       <c r="H8" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I8" t="n">
         <v>38.7</v>
@@ -1782,22 +1849,22 @@
         <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M8" t="n">
         <v>20.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
         <v>9.300000000000001</v>
@@ -1815,7 +1882,7 @@
         <v>14.2</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X8" t="n">
         <v>5.4</v>
@@ -1830,22 +1897,22 @@
         <v>19.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1872,7 +1939,7 @@
         <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
@@ -2051,7 +2118,7 @@
         <v>24</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H10" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J10" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K10" t="n">
         <v>0.444</v>
@@ -2155,25 +2222,25 @@
         <v>0.356</v>
       </c>
       <c r="O10" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.698</v>
+        <v>0.696</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2185,34 +2252,34 @@
         <v>5.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.9</v>
+        <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF10" t="n">
         <v>26</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>27</v>
       </c>
       <c r="AG10" t="n">
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2221,16 +2288,16 @@
         <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2245,10 +2312,10 @@
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
@@ -2266,13 +2333,13 @@
         <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>15</v>
       </c>
       <c r="BB10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2451,7 +2518,7 @@
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2755,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
         <v>48</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.676</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2871,49 +2938,49 @@
         <v>80.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.706</v>
+        <v>0.707</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T14" t="n">
         <v>41.5</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.9</v>
       </c>
       <c r="W14" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X14" t="n">
         <v>5.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z14" t="n">
         <v>20.9</v>
@@ -2925,10 +2992,10 @@
         <v>100.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2937,16 +3004,16 @@
         <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2955,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
         <v>21</v>
@@ -2994,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>0.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>6</v>
@@ -3361,7 +3428,7 @@
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3501,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
@@ -3519,13 +3586,13 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>15</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3725,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -3760,43 +3827,43 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
         <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>0.362</v>
+        <v>0.353</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3</v>
+        <v>0.294</v>
       </c>
       <c r="O19" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P19" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="Q19" t="n">
         <v>0.732</v>
@@ -3820,28 +3887,28 @@
         <v>8.1</v>
       </c>
       <c r="X19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y19" t="n">
         <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3853,13 +3920,13 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>16</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3871,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
@@ -3886,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
@@ -4038,7 +4105,7 @@
         <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
         <v>12</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.623</v>
+        <v>0.618</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,22 +4209,22 @@
         <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K21" t="n">
         <v>0.442</v>
       </c>
       <c r="L21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="M21" t="n">
         <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P21" t="n">
         <v>21.6</v>
@@ -4175,13 +4242,13 @@
         <v>40.9</v>
       </c>
       <c r="U21" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V21" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W21" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4190,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
@@ -4199,10 +4266,10 @@
         <v>99</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>24</v>
@@ -4244,7 +4311,7 @@
         <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,10 +4335,10 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
         <v>11</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4617,7 +4684,7 @@
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4769,10 +4836,10 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-6.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5154,7 +5221,7 @@
         <v>7</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5873,7 +5940,7 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
@@ -5888,7 +5955,7 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -6043,7 +6110,7 @@
         <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-26-2012-13</t>
+          <t>2013-03-26</t>
         </is>
       </c>
     </row>
